--- a/data/trans_orig/P14C04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3F7952A-4097-470E-ADD2-85F22F285D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0198E706-852E-4AAA-A2F6-32E70882C352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{11FA3187-D5D3-4FB0-9050-EDD0A19EDC97}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D8A0337-32E8-484A-89D9-B4D9D4B01A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="177">
   <si>
     <t>Población según el tiempo de diagnóstico de la colesterol en 2015 (Tasa respuesta: 11,78%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>88,14%</t>
   </si>
   <si>
-    <t>63,42%</t>
+    <t>64,89%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>63,94%</t>
   </si>
   <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>78,55%</t>
   </si>
   <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>36,58%</t>
+    <t>35,11%</t>
   </si>
   <si>
     <t>25,9%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
   </si>
   <si>
     <t>17,43%</t>
   </si>
   <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -140,13 +140,13 @@
     <t>10,16%</t>
   </si>
   <si>
-    <t>40,27%</t>
+    <t>40,57%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>22,37%</t>
+    <t>21,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,46 +158,46 @@
     <t>66,14%</t>
   </si>
   <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
   </si>
   <si>
     <t>67,61%</t>
   </si>
   <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
   </si>
   <si>
     <t>66,99%</t>
   </si>
   <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
   </si>
   <si>
     <t>26,79%</t>
   </si>
   <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
   </si>
   <si>
     <t>21,33%</t>
   </si>
   <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
   </si>
   <si>
     <t>23,65%</t>
@@ -206,34 +206,34 @@
     <t>17,33%</t>
   </si>
   <si>
-    <t>32,38%</t>
+    <t>31,11%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
   </si>
   <si>
     <t>11,06%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -242,166 +242,166 @@
     <t>67,68%</t>
   </si>
   <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>71,58%</t>
   </si>
   <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
   </si>
   <si>
     <t>69,82%</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
   </si>
   <si>
     <t>24,11%</t>
   </si>
   <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
   </si>
   <si>
     <t>23,88%</t>
   </si>
   <si>
-    <t>18,49%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
   <si>
     <t>29,49%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -410,52 +410,52 @@
     <t>72,01%</t>
   </si>
   <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
   </si>
   <si>
     <t>72,97%</t>
   </si>
   <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>72,57%</t>
   </si>
   <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
   </si>
   <si>
     <t>22,63%</t>
   </si>
   <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
   </si>
   <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>14,75%</t>
+    <t>15,11%</t>
   </si>
   <si>
     <t>27,06%</t>
@@ -464,109 +464,106 @@
     <t>5,36%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
   </si>
   <si>
     <t>6,99%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
   </si>
   <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
   </si>
   <si>
     <t>69,86%</t>
   </si>
   <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>5,52%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -981,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9F8266-73AE-4056-8D30-4F0F0D9004A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2361DB-BCDD-4E6D-857D-4A5421262F04}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2243,7 +2240,7 @@
         <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -2252,13 +2249,13 @@
         <v>33301</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>60</v>
@@ -2267,13 +2264,13 @@
         <v>63880</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,7 +2326,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C04-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0198E706-852E-4AAA-A2F6-32E70882C352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9894E079-6578-45F0-9508-4034217EEF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D8A0337-32E8-484A-89D9-B4D9D4B01A1B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C755502-8C36-4552-9F89-1E6CDC80CCAD}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="177">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la colesterol en 2015 (Tasa respuesta: 11,78%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="174">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la colesterol en 2016 (Tasa respuesta: 11,78%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -74,7 +74,7 @@
     <t>88,14%</t>
   </si>
   <si>
-    <t>64,89%</t>
+    <t>62,53%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>63,94%</t>
   </si>
   <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
   </si>
   <si>
     <t>78,55%</t>
   </si>
   <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>35,11%</t>
+    <t>37,47%</t>
   </si>
   <si>
     <t>25,9%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
   </si>
   <si>
     <t>17,43%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -140,268 +140,265 @@
     <t>10,16%</t>
   </si>
   <si>
-    <t>40,57%</t>
+    <t>41,44%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>21,63%</t>
+    <t>21,79%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
   </si>
   <si>
     <t>67,61%</t>
   </si>
   <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>66,99%</t>
   </si>
   <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
   </si>
   <si>
     <t>26,79%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
   </si>
   <si>
     <t>21,33%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
   </si>
   <si>
     <t>23,65%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
   </si>
   <si>
     <t>11,06%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>67,68%</t>
   </si>
   <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>71,58%</t>
   </si>
   <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
   </si>
   <si>
     <t>69,82%</t>
   </si>
   <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
   </si>
   <si>
     <t>24,11%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
   </si>
   <si>
     <t>23,88%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>8,72%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>60,98%</t>
   </si>
   <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
   </si>
   <si>
     <t>67,83%</t>
   </si>
   <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
   </si>
   <si>
     <t>27,65%</t>
   </si>
   <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -410,160 +407,154 @@
     <t>72,01%</t>
   </si>
   <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>72,97%</t>
   </si>
   <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
   </si>
   <si>
     <t>72,57%</t>
   </si>
   <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
   </si>
   <si>
     <t>22,63%</t>
   </si>
   <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
   </si>
   <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>6,99%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
   </si>
   <si>
     <t>69,86%</t>
   </si>
   <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
+    <t>25,05%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
+    <t>5,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -978,7 +969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2361DB-BCDD-4E6D-857D-4A5421262F04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E288F7F-2D2D-4B57-9A0F-01F719BFDC32}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1735,13 +1726,13 @@
         <v>62802</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>109</v>
@@ -1750,13 +1741,13 @@
         <v>119954</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1771,13 +1762,13 @@
         <v>25915</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -1786,13 +1777,13 @@
         <v>14129</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -1801,13 +1792,13 @@
         <v>40045</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,13 +1813,13 @@
         <v>10659</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -1837,13 +1828,13 @@
         <v>6176</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -1852,13 +1843,13 @@
         <v>16835</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1914,7 +1905,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1926,13 +1917,13 @@
         <v>62344</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>74</v>
@@ -1941,13 +1932,13 @@
         <v>88399</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>139</v>
@@ -1956,13 +1947,13 @@
         <v>150743</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,13 +1968,13 @@
         <v>19588</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -1992,13 +1983,13 @@
         <v>22861</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -2007,13 +1998,13 @@
         <v>42450</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,13 +2019,13 @@
         <v>4643</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -2043,13 +2034,13 @@
         <v>9881</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -2058,13 +2049,13 @@
         <v>14524</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,13 +2123,13 @@
         <v>260482</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>283</v>
@@ -2147,13 +2138,13 @@
         <v>324207</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>544</v>
@@ -2162,13 +2153,13 @@
         <v>584688</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2174,13 @@
         <v>93854</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>84</v>
@@ -2198,13 +2189,13 @@
         <v>94490</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>170</v>
@@ -2213,13 +2204,13 @@
         <v>188344</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,13 +2225,13 @@
         <v>30579</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -2249,13 +2240,13 @@
         <v>33301</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>60</v>
@@ -2264,13 +2255,13 @@
         <v>63880</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,7 +2317,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
